--- a/biology/Zoologie/Chironius_grandisquamis/Chironius_grandisquamis.xlsx
+++ b/biology/Zoologie/Chironius_grandisquamis/Chironius_grandisquamis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chironius grandisquamis  est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chironius grandisquamis  est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de la Colombie, au Costa Rica, dans le nord-ouest de l'Équateur, dans le nord du Honduras (entre 120 et 990 m d'altitude), dans l'est du Nicaragua, au Panama, au Pérou et au Salvador[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans l'ouest de la Colombie, au Costa Rica, dans le nord-ouest de l'Équateur, dans le nord du Honduras (entre 120 et 990 m d'altitude), dans l'est du Nicaragua, au Panama, au Pérou et au Salvador.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description Peters indique que le spécimen en sa possession mesure 220 cm dont 71 cm pour la queue et 5 cm pour la tête. Sa coloration est entièrement noire, avec du jaunâtre au niveau de la gorge et l'avant du cou[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Peters indique que le spécimen en sa possession mesure 220 cm dont 71 cm pour la queue et 5 cm pour la tête. Sa coloration est entièrement noire, avec du jaunâtre au niveau de la gorge et l'avant du cou.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1868 : Über eine neue Nagergattung, Chiropodomys penicullatus, sowie über einige neue oder weniger bekannte Amphibien und Fische. Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1868, p. 448-461 (texte intégral).</t>
         </is>
